--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07BA7844-C1C8-4856-9A84-A27AC93930CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D50680-82DC-40F4-A3DA-D64651BC6BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="810" windowWidth="25440" windowHeight="18585" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -106,14 +106,25 @@
   </si>
   <si>
     <t>andre</t>
+  </si>
+  <si>
+    <t>fatta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,13 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -495,7 +507,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +525,9 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -524,6 +539,9 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -535,6 +553,9 @@
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -546,6 +567,9 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -574,6 +598,9 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="5">
         <v>3</v>
       </c>
@@ -591,6 +618,9 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
@@ -606,6 +636,7 @@
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -706,10 +737,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -918,22 +965,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -950,29 +1007,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D50680-82DC-40F4-A3DA-D64651BC6BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC097ECF-203D-4848-860C-A32670FD6266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -190,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -507,7 +508,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +582,9 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
@@ -598,7 +602,7 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5">
@@ -742,18 +746,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,6 +970,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -978,14 +990,6 @@
     <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC097ECF-203D-4848-860C-A32670FD6266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A586810-05AD-43F2-834B-CA2574E7F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -191,6 +191,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -508,7 +510,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +663,12 @@
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
@@ -691,7 +696,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
@@ -746,18 +753,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,14 +977,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -990,6 +989,14 @@
     <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A586810-05AD-43F2-834B-CA2574E7F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C9A02-BE14-441E-8A98-6334D3567737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +675,9 @@
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -753,18 +756,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,6 +980,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -989,14 +1000,6 @@
     <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C9A02-BE14-441E-8A98-6334D3567737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F0699-BD23-4422-8031-12F49DA217C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
+    <workbookView xWindow="9435" yWindow="2415" windowWidth="25440" windowHeight="18585" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,9 +624,7 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="3">
         <v>4</v>
       </c>
@@ -675,7 +673,7 @@
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -1,50 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F0699-BD23-4422-8031-12F49DA217C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="2415" windowWidth="25440" windowHeight="18585" xr2:uid="{162DB40B-610E-44D7-B799-C2D70BE17169}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ale</t>
+  </si>
+  <si>
+    <t>fatta</t>
+  </si>
+  <si>
     <t>freePcbs</t>
   </si>
   <si>
+    <t>andre</t>
+  </si>
+  <si>
     <t>allocPcb</t>
   </si>
   <si>
+    <t>nic</t>
+  </si>
+  <si>
     <t>mkemptyprocq</t>
   </si>
   <si>
@@ -54,9 +48,15 @@
     <t>insertprocq</t>
   </si>
   <si>
+    <t>alex</t>
+  </si>
+  <si>
     <t>headprocq</t>
   </si>
   <si>
+    <t>andrea</t>
+  </si>
+  <si>
     <t>removeprocq</t>
   </si>
   <si>
@@ -88,51 +88,28 @@
   </si>
   <si>
     <t>initasl</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>andrea</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>nic</t>
-  </si>
-  <si>
-    <t>ale</t>
-  </si>
-  <si>
-    <t>andre</t>
-  </si>
-  <si>
-    <t>fatta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11.000000"/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,31 +119,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,19 +163,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="12">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -203,15 +190,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -253,108 +520,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,7 +535,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -388,7 +561,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -440,16 +613,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -465,7 +650,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -496,279 +681,265 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F8EE4F-5A06-4770-B398-224AFC4CDDEC}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0" zoomScale="205">
+      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="10" customFormat="1">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -977,10 +1148,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1003,20 +1200,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456FD49-5599-4924-82F4-D8DD9A1FBCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="1035" yWindow="1950" windowWidth="25440" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -93,19 +100,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
-      <u/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,23 +170,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -190,295 +195,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -681,22 +406,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="205">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.42578125"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -724,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -738,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -752,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -772,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,7 +537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -822,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -830,9 +557,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10">
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -846,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -858,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -872,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -881,10 +610,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="1">
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -893,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -902,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -911,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -920,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -932,14 +661,18 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -1148,12 +881,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1164,6 +891,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1182,23 +926,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456FD49-5599-4924-82F4-D8DD9A1FBCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8C48E4-CAF1-4926-A099-0781E519A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1950" windowWidth="25440" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2415" windowWidth="25440" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -185,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -415,7 +424,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +630,9 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -630,6 +642,7 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -662,17 +675,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -881,6 +888,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -891,23 +904,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -926,6 +922,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8C48E4-CAF1-4926-A099-0781E519A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAF79A-128C-4011-A132-84537A22B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2415" windowWidth="25440" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12810" yWindow="2430" windowWidth="25440" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>initPcbs</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>initasl</t>
+  </si>
+  <si>
+    <t>errori</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +462,9 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -487,6 +493,9 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -569,6 +578,9 @@
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -595,6 +607,9 @@
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -617,6 +632,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -680,6 +698,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -888,12 +912,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -904,6 +922,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -922,23 +957,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAF79A-128C-4011-A132-84537A22B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACAFA0A-E0EB-461E-976D-BA2E527D1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="2430" windowWidth="25440" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12810" yWindow="2430" windowWidth="25440" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>initPcbs</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,9 +578,7 @@
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -698,12 +696,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -912,6 +904,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -922,23 +920,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -957,6 +938,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACAFA0A-E0EB-461E-976D-BA2E527D1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926650E1-537A-41FD-A876-EB6B449EE562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12810" yWindow="2430" windowWidth="25440" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12810" yWindow="2430" windowWidth="25440" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>initPcbs</t>
   </si>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -197,6 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -427,7 +428,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,9 +606,7 @@
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -627,7 +626,7 @@
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
@@ -649,6 +648,7 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -696,6 +696,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -904,12 +910,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -920,6 +920,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -938,23 +955,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>

--- a/DivisioneCompitiProgetto.xlsx
+++ b/DivisioneCompitiProgetto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niccolò\Documents\GitHub\WWFos_plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926650E1-537A-41FD-A876-EB6B449EE562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC3540-DA10-408B-A0D7-AD5CB053EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12810" yWindow="2430" windowWidth="25440" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>initPcbs</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>ale</t>
-  </si>
-  <si>
-    <t>fatta</t>
   </si>
   <si>
     <t>freePcbs</t>
@@ -428,7 +425,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,81 +443,67 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -528,19 +511,17 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="5">
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -553,85 +534,75 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -639,20 +610,17 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -662,31 +630,31 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +664,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E00C5A350B8B864FA4BB6364DB87AFA5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b03546160d7af3751660de6bf9eb727a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe3a730e-302a-4df5-bd37-d9344ad5dd39" xmlns:ns4="59517204-b887-420f-893f-e0f09dd2c946" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2fc8f87c45d55b23d30fe2f981dfbf9" ns3:_="" ns4:_="">
     <xsd:import namespace="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
@@ -910,6 +872,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -920,23 +888,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
-    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A39DC78-4D5D-4213-A8CB-8E167CA8B9F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -955,6 +906,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ADF2E5-66BF-436E-A5DE-15F1AF697C78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3a730e-302a-4df5-bd37-d9344ad5dd39"/>
+    <ds:schemaRef ds:uri="59517204-b887-420f-893f-e0f09dd2c946"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6168705-F75C-4995-B7F0-B5C55A72CEAF}">
   <ds:schemaRefs>
